--- a/flowchart/処理フロー.xlsx
+++ b/flowchart/処理フロー.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TigRig\Dropbox\01_制作\プログラミング\JPHACKS\文字認識処理プロジェクト\開発フロー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SKY_NST\chara_recog\flowchart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>終了……というか、処理は何度も繰り返せる</t>
     <rPh sb="0" eb="2">
@@ -140,20 +140,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>高崎</t>
-    <rPh sb="0" eb="2">
-      <t>タカサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>横川</t>
-    <rPh sb="0" eb="2">
-      <t>ヨコカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -234,6 +220,246 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81643" y="14491606"/>
+          <a:ext cx="3701143" cy="4395107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6123213" y="9987643"/>
+          <a:ext cx="5578929" cy="1551214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6123214" y="3891643"/>
+          <a:ext cx="3946072" cy="5170714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530679" y="3837214"/>
+          <a:ext cx="5429250" cy="7184572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9531</xdr:colOff>
       <xdr:row>83</xdr:row>
@@ -724,53 +950,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1381126" y="2609850"/>
-          <a:ext cx="1" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7840,6 +8019,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="テキスト ボックス 146"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606720" y="3906049"/>
+          <a:ext cx="645138" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高崎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47259</xdr:colOff>
       <xdr:row>106</xdr:row>
@@ -7944,6 +8189,251 @@
               </a:solidFill>
             </a:rPr>
             <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1381126" y="2609850"/>
+          <a:ext cx="1" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76041</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6199255" y="3960478"/>
+          <a:ext cx="372995" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>直</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76041</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6199255" y="10029263"/>
+          <a:ext cx="645138" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加藤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171290</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="テキスト ボックス 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2892719" y="14628477"/>
+          <a:ext cx="645138" cy="339379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>横川</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10407,10 +10897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10420,15 +10910,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
